--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Dropbox\GPhoto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14958B51-9C28-412D-83C4-0B31567A57A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020A4F04-8E34-4E33-BFCC-7EC8481C6674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15360" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
@@ -25,6 +25,87 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>今井潔志</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5E80CF89-47FD-4893-A0F3-A4707C8AC143}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>'Auto', '100', '125', '160', '200', '250', '320', '400', '500', '640', '800', '1000', '1250', '1600', '2000', '2500', '3200', '4000', '5000', '6400', '8000', '10000', '12800', '16000', '20000', '25600', '51200', '102400'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{694D8C69-123C-4C61-A541-E1B40C3B5D39}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">'30', '25', '20', '15', '13', '10.3', '8', '6.3', '5', '4', '3.2', '2.5', '2', '1.6', '1.3', '1', '0.8', '0.6', '0.5', '0.4', '0.3', '1/4', '1/5', '1/6', '1/8', '1/10', '1/13', '1/15', '1/20', '1/25', '1/30', '1/40', '1/50', '1/60', '1/80', '1/100', '1/125', '1/160', '1/200', '1/250', '1/320', '1/400', '1/500', '1/640', '1/800', '1/1000', '1/1250', '1/1600', '1/2000', '1/2500', '1/3200', '1/4000'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A1C0D98D-6470-4434-B754-B70BD6C4D565}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>'Large Fine JPEG', 'Large Normal JPEG', 'Medium Fine JPEG', 'Medium Normal JPEG', 'Small Fine JPEG', 'Small Normal JPEG', 'Smaller JPEG', 'Tiny JPEG', 'RAW + Large Fine JPEG', 'RAW + Large Normal JPEG', 'RAW + Medium Fine JPEG', 'RAW + Medium Normal JPEG', 'RAW + Small Fine JPEG', 'RAW + Small Normal JPEG', 'RAW + Smaller JPEG', 'RAW + Tiny JPEG', 'mRAW + Large Fine JPEG', 'mRAW + Large Normal JPEG', 'mRAW + Medium Fine JPEG', 'mRAW + Medium Normal JPEG', 'mRAW + Small Fine JPEG', 'mRAW + Small Normal JPEG', 'mRAW + Smaller JPEG', 'mRAW + Tiny JPEG', 'sRAW + Large Fine JPEG', 'sRAW + Large Normal JPEG', 'sRAW + Medium Fine JPEG', 'sRAW + Medium Normal JPEG', 'sRAW + Small Fine JPEG', 'sRAW + Small Normal JPEG', 'sRAW + Smaller JPEG', 'sRAW + Tiny JPEG', 'RAW', 'mRAW', 'sRAW'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2CB6944D-D477-486D-8F58-42A79E3102BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>'Auto', 'Daylight', 'Shadow', 'Cloudy', 'Tungsten', 'Fluorescent', 'Flash', 'Manual', 'Color Temperature'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B87C72BD-C670-45DA-A872-F2F60836F0C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>'2500', '2600', '2700', '2800', '2900', '3000', '3100', '3200', '3300', '3400', '3500', '3600', '3700', '3800', '3900', '4000', '4100', '4200', '4300', '4400', '4500', '4600', '4700', '4800', '4900', '5000', '5100', '5200', '5300', '5400', '5500', '5600', '5700', '5800', '5900', '6000', '6100', '6200', '6300', '6400', '6500', '6600', '6700', '6800', '6900', '7000', '7100', '7200', '7300', '7400', '7500', '7600', '7700', '7800', '7900', '8000', '8100', '8200', '8300', '8400', '8500', '8600', '8700', '8800', '8900', '9000', '9100', '9200', '9300', '9400', '9500', '9600', '9700', '9800', '9900', '10000'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
@@ -441,7 +522,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +537,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -827,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
@@ -850,7 +938,7 @@
     <col min="12" max="12" width="44.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:12" ht="28.35" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -888,7 +976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -924,7 +1012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -964,7 +1052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1003,7 +1091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1042,7 +1130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1081,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1114,7 +1202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1158,6 +1246,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
@@ -1181,14 +1270,14 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1204,12 +1293,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:10">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:10">
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1349,7 @@
         <v>5.3599537037037015E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1384,7 @@
         <v>3.0555555555555891E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1401,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>16</v>
       </c>

--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Python\eclipse_shooter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020A4F04-8E34-4E33-BFCC-7EC8481C6674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278EB73-58E9-4A26-A303-1D8602C5067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15360" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Shooting script" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -107,53 +107,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>JST</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Timezone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UTC-5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1st contact</t>
   </si>
   <si>
     <t>1st contact</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Location</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>96度.16分.38秒</t>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>32度.42分.11秒</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>142m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Height</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -617,6 +580,1579 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488078</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159372</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D780911-3542-D8FD-4E7D-09BB3FA6FCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1618627" y="3376706"/>
+          <a:ext cx="702236" cy="478118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1st contact</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>592280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA8D097-046E-633C-7F82-6B012AF72870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376228" y="3364639"/>
+          <a:ext cx="703003" cy="475818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2nd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>contact</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1329764</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE1DB4A-783B-FB61-0A53-E8ED6BA82328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6628901" y="3376706"/>
+          <a:ext cx="702236" cy="478118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>contact</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1329764</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368549</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C285977D-883A-295E-C0C1-4C9333DDA2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9452784" y="3376706"/>
+          <a:ext cx="702236" cy="478118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4th</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>contact</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222095</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505977</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1775F790-BC76-E70C-BFEB-A3306D6DA7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1352395" y="4069535"/>
+          <a:ext cx="2938182" cy="509686"/>
+          <a:chOff x="1352070" y="4060743"/>
+          <a:chExt cx="2937855" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線コネクタ 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEE990E-2E4B-4198-2A75-F54A6C1D95D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27419314-AAD1-FCA0-8998-28487E5537BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE86A64-D36C-23D2-67C5-9685B90D8795}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2305537" y="4060743"/>
+            <a:ext cx="993207" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SequentialA1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>839866</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>843410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>221436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F59D97F-288A-BFB4-1DC9-3AF0F869A05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1969841" y="3840457"/>
+          <a:ext cx="3544" cy="389620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35531</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03015B04-35E3-334E-BF83-EB7DB923059D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711736" y="3833944"/>
+          <a:ext cx="3544" cy="389620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>947328</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>950872</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>227948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DB0F94-43F4-15E1-E7C3-C241A52763B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6952149" y="3846969"/>
+          <a:ext cx="3544" cy="389620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584131</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEBBD78-B7D7-A656-0303-4728CF7F57E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1430549" y="4500685"/>
+          <a:ext cx="2938182" cy="509685"/>
+          <a:chOff x="1352070" y="4060743"/>
+          <a:chExt cx="2937855" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="直線コネクタ 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26238FCB-B5BA-47FB-0340-F2DB29B71459}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EC9EA9-B1C8-743A-80AD-847D12CCDE25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849E2F27-9F8B-A083-900F-86FA38C2F8C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2305537" y="4060743"/>
+            <a:ext cx="993207" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SequentialA2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1413941</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>567848</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7878F396-30F1-9E3D-7059-1DC6D12CCFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7421041" y="4069535"/>
+          <a:ext cx="2938507" cy="509686"/>
+          <a:chOff x="1352070" y="4060743"/>
+          <a:chExt cx="2937855" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="直線コネクタ 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66630B32-9AFB-F7EC-E19C-13BDE756FF3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A57F872-EAEF-12C7-EAF1-9F29436E2153}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6810CCD0-2837-1DA7-A878-4C5A68A4DECF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2305537" y="4060743"/>
+            <a:ext cx="993207" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SequentialB1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1492095</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>646002</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377275F7-6357-5310-0074-9F1BF4CE2795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7499195" y="4500685"/>
+          <a:ext cx="2938507" cy="509685"/>
+          <a:chOff x="1352070" y="4060743"/>
+          <a:chExt cx="2937855" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="直線コネクタ 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECBA4E7-F48F-D797-96AD-B7730C1E98B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FE0479-1BF7-8A93-05F0-4F220052809A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="テキスト ボックス 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63056E9D-EBC5-8439-05F1-F256AF1CB830}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2305537" y="4060743"/>
+            <a:ext cx="993207" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SequentialB2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>570532</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319127</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153434</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D2D6E9-CD45-DCAE-C9D3-EE7773D1085D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4355132" y="4118381"/>
+          <a:ext cx="1082095" cy="509686"/>
+          <a:chOff x="1352070" y="4060743"/>
+          <a:chExt cx="4978472" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線コネクタ 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B3BFAD-3DFE-1523-ABF6-954609FD48A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD5711A-DD02-70F0-B15A-94FAAE4FE55F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="テキスト ボックス 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079C4C53-4E7A-C3C4-80D5-453274CBC950}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1450274" y="4060743"/>
+            <a:ext cx="4880268" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>DiamondRingA</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1631460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153434</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E1A72B-65B0-1130-88F9-EB032B33D700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6430433" y="4118381"/>
+          <a:ext cx="1208127" cy="509686"/>
+          <a:chOff x="23873" y="4060743"/>
+          <a:chExt cx="6306669" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="直線コネクタ 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B33DA1B-AD6E-74CF-D562-02502497E3C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19933BC9-2BCA-5FEE-9CAD-0B0615684A56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="テキスト ボックス 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FD3661-540C-9339-4EB3-7804DB8EB362}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23873" y="4060743"/>
+            <a:ext cx="6306669" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>DiamondRingB</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>375147</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470081</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23177</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D788529B-4FD3-6C6E-468B-0D1173317FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5052980" y="4444673"/>
+          <a:ext cx="1424201" cy="510337"/>
+          <a:chOff x="1352070" y="4060743"/>
+          <a:chExt cx="2937855" cy="508383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線コネクタ 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125D0A03-3D88-D891-4C17-F43D2F6D2A2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369034" y="4113230"/>
+            <a:ext cx="0" cy="455896"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFE0D45-FAB8-7B6D-C912-7F949FBA7B4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352070" y="4351139"/>
+            <a:ext cx="2937855" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="テキスト ボックス 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9885F82E-F807-3A65-3615-D063628D07DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2197482" y="4060743"/>
+            <a:ext cx="1646507" cy="263769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>BlackSun</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -940,51 +2476,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="28.35" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B2,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B2,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.72499999999999998</v>
       </c>
       <c r="D2" s="5">
@@ -1000,27 +2536,27 @@
         <v>100</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B3,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B3,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.72499999999999998</v>
       </c>
       <c r="D3" s="5">
@@ -1037,30 +2573,30 @@
         <v>100</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>2500</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B4,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B4,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.77859953703703699</v>
       </c>
       <c r="D4" s="5">
@@ -1073,33 +2609,33 @@
         <v>90</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>2500</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B5,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B5,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.78012731481481479</v>
       </c>
       <c r="D5" s="5">
@@ -1115,30 +2651,30 @@
         <v>100</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>2500</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B6,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B6,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.78165509259259258</v>
       </c>
       <c r="D6" s="5">
@@ -1151,33 +2687,33 @@
         <v>90</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>2500</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B7,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B7,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.8354166666666667</v>
       </c>
       <c r="D7" s="5">
@@ -1193,24 +2729,24 @@
         <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3">
-        <f>INDEX(Sheet2!$E$8:$E$12,MATCH(B8,Sheet2!$A$8:$A$12,0))</f>
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B8,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.8354166666666667</v>
       </c>
       <c r="D8" s="5">
@@ -1227,32 +2763,33 @@
         <v>100</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>2500</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06D76A65-2E73-4314-87FB-32A84EAF2B19}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$8:$A$12</xm:f>
+            <xm:f>'Contact time'!$A$3:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
@@ -1264,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5763B4D-B86C-46D0-A39A-3E2194A11374}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1277,146 +2814,117 @@
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f>E4-E3</f>
+        <v>5.3599537037037015E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.52859953703703699</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.77859953703703699</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.15359953703703702</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53012731481481479</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.15512731481481482</v>
+      </c>
+      <c r="J5" s="3">
+        <f>G6-G4</f>
+        <v>3.0555555555555891E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.53165509259259258</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.78165509259259258</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.15665509259259261</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="J8" s="3">
-        <f>E9-E8</f>
-        <v>5.3599537037037015E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.52859953703703699</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.77859953703703699</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.15359953703703702</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.53012731481481479</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.78012731481481479</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.15512731481481482</v>
-      </c>
-      <c r="J10" s="3">
-        <f>G11-G9</f>
-        <v>3.0555555555555891E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.53165509259259258</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.78165509259259258</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.15665509259259261</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.5854166666666667</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E7" s="3">
         <v>0.8354166666666667</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G7" s="3">
         <v>0.21041666666666667</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <f>E12-E11</f>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <f>E7-E6</f>
         <v>5.3761574074074114E-2</v>
       </c>
     </row>

--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Python\eclipse_shooter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278EB73-58E9-4A26-A303-1D8602C5067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D654F47-BBDA-4029-9B7E-0BBECCE13A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15360" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>JST</t>
     <phoneticPr fontId="1"/>
@@ -2454,9 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2733,6 +2731,9 @@
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>

--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Python\eclipse_shooter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D654F47-BBDA-4029-9B7E-0BBECCE13A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C767CC-7D44-46EA-BF31-A8ED1EEAB605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15360" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Shooting script" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>今井潔志</author>
+    <author>Kiyoshi Imai</author>
   </authors>
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5E80CF89-47FD-4893-A0F3-A4707C8AC143}">
@@ -60,7 +61,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A1C0D98D-6470-4434-B754-B70BD6C4D565}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{4352F9C1-284D-48C5-B737-3AC149BDFFEA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>撮像後のスリープ時間（それぞれの機種や環境で評価必要）
+  EOS RPの場合：1.3以上
+  EOS 6Dの場合：1.2以上
+  EOS 6D(ミラーアップ)の場合：1.0以上
+  EOS R3の場合：0.7以上
+  EOS R3(サイレントシャッターON)の場合：0.6以上</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A1C0D98D-6470-4434-B754-B70BD6C4D565}">
       <text>
         <r>
           <rPr>
@@ -74,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2CB6944D-D477-486D-8F58-42A79E3102BD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2CB6944D-D477-486D-8F58-42A79E3102BD}">
       <text>
         <r>
           <rPr>
@@ -88,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B87C72BD-C670-45DA-A872-F2F60836F0C1}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{B87C72BD-C670-45DA-A872-F2F60836F0C1}">
       <text>
         <r>
           <rPr>
@@ -107,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>JST</t>
     <phoneticPr fontId="1"/>
@@ -474,6 +494,10 @@
     <rPh sb="26" eb="28">
       <t>サツゾウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wait</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -811,13 +835,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1329764</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>39844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>368549</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>59765</xdr:rowOff>
@@ -912,8 +936,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1352395" y="4069535"/>
-          <a:ext cx="2938182" cy="509686"/>
+          <a:off x="1354209" y="4156016"/>
+          <a:ext cx="2939997" cy="520572"/>
           <a:chOff x="1352070" y="4060743"/>
           <a:chExt cx="2937855" cy="508383"/>
         </a:xfrm>
@@ -1224,8 +1248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1430549" y="4500685"/>
-          <a:ext cx="2938182" cy="509685"/>
+          <a:off x="1432363" y="4598052"/>
+          <a:ext cx="2939997" cy="520571"/>
           <a:chOff x="1352070" y="4060743"/>
           <a:chExt cx="2937855" cy="508383"/>
         </a:xfrm>
@@ -1366,7 +1390,7 @@
       <xdr:rowOff>52102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>567848</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104588</xdr:rowOff>
@@ -1384,8 +1408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7421041" y="4069535"/>
-          <a:ext cx="2938507" cy="509686"/>
+          <a:off x="7422855" y="4156016"/>
+          <a:ext cx="3660593" cy="520572"/>
           <a:chOff x="1352070" y="4060743"/>
           <a:chExt cx="2937855" cy="508383"/>
         </a:xfrm>
@@ -1526,7 +1550,7 @@
       <xdr:rowOff>26052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>646002</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78537</xdr:rowOff>
@@ -1544,8 +1568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7499195" y="4500685"/>
-          <a:ext cx="2938507" cy="509685"/>
+          <a:off x="7501009" y="4598052"/>
+          <a:ext cx="3660593" cy="520571"/>
           <a:chOff x="1352070" y="4060743"/>
           <a:chExt cx="2937855" cy="508383"/>
         </a:xfrm>
@@ -1704,8 +1728,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4355132" y="4118381"/>
-          <a:ext cx="1082095" cy="509686"/>
+          <a:off x="4358761" y="4204862"/>
+          <a:ext cx="1082095" cy="520572"/>
           <a:chOff x="1352070" y="4060743"/>
           <a:chExt cx="4978472" cy="508383"/>
         </a:xfrm>
@@ -1862,8 +1886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6430433" y="4118381"/>
-          <a:ext cx="1208127" cy="509686"/>
+          <a:off x="6432247" y="4204862"/>
+          <a:ext cx="1208127" cy="520572"/>
           <a:chOff x="23873" y="4060743"/>
           <a:chExt cx="6306669" cy="508383"/>
         </a:xfrm>
@@ -2020,8 +2044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5052980" y="4444673"/>
-          <a:ext cx="1424201" cy="510337"/>
+          <a:off x="5056004" y="4536597"/>
+          <a:ext cx="1422991" cy="526666"/>
           <a:chOff x="1352070" y="4060743"/>
           <a:chExt cx="2937855" cy="508383"/>
         </a:xfrm>
@@ -2452,27 +2476,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.609375" customWidth="1"/>
-    <col min="5" max="5" width="11.71875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.27734375" customWidth="1"/>
-    <col min="12" max="12" width="44.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="10.640625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.78515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.640625" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.2109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="44.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.35" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="28.4" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -2498,19 +2524,22 @@
         <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2536,17 +2565,20 @@
       <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2573,20 +2605,23 @@
       <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2500</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2612,20 +2647,23 @@
       <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2500</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2651,20 +2689,23 @@
       <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2500</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2690,20 +2731,23 @@
       <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2500</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2729,17 +2773,20 @@
       <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2766,16 +2813,19 @@
       <c r="H8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2500</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2805,14 +2855,14 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Python\eclipse_shooter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C767CC-7D44-46EA-BF31-A8ED1EEAB605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD1E5B9-11D8-4D60-A277-2B9546232EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>JST</t>
     <phoneticPr fontId="1"/>
@@ -498,6 +498,10 @@
   </si>
   <si>
     <t>wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2479,7 +2483,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -2651,7 +2655,7 @@
         <v>1.5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -2693,7 +2697,7 @@
         <v>1.5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -2735,7 +2739,7 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>

--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Python\eclipse_shooter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFB7DE-CDF6-4831-B138-F7766714BC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5319DA-47D6-468A-9881-DB864CAEFCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <author>今井潔志</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5E80CF89-47FD-4893-A0F3-A4707C8AC143}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5E80CF89-47FD-4893-A0F3-A4707C8AC143}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{694D8C69-123C-4C61-A541-E1B40C3B5D39}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{694D8C69-123C-4C61-A541-E1B40C3B5D39}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A1C0D98D-6470-4434-B754-B70BD6C4D565}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{A1C0D98D-6470-4434-B754-B70BD6C4D565}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2CB6944D-D477-486D-8F58-42A79E3102BD}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{2CB6944D-D477-486D-8F58-42A79E3102BD}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{B87C72BD-C670-45DA-A872-F2F60836F0C1}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B87C72BD-C670-45DA-A872-F2F60836F0C1}">
       <text>
         <r>
           <rPr>
@@ -107,13 +107,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>JST</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1st contact</t>
   </si>
   <si>
     <t>1st contact</t>
@@ -225,28 +222,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>皆既中の撮影</t>
-    <rPh sb="0" eb="2">
-      <t>カイキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サツエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BlackSun</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -293,122 +269,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SequentialA1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SequentialA2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SequentialB1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SequentialB2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4th contact</t>
   </si>
   <si>
-    <t>第1接触時間の13分30秒前から30秒ごとに180枚撮像</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>プン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サツゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第4接触時間の76分30秒前から30秒ごとに180枚撮像</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第4接触時間の76分15秒前から30秒ごとに180枚撮像</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1接触時間の13分15秒前から30秒ごとに180枚撮像</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サツゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+/- 1 2/3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -421,25 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第2接触時間の前後40秒 (AUTOとISO100各1枚)</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DiamondRingB1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -448,10 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+/- 1/3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,39 +304,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Auto,100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Color Temperature</t>
-  </si>
-  <si>
     <t>RAW + Large Fine JPEG</t>
-  </si>
-  <si>
-    <t>第3接触時間の前後50秒 (AUTOとISO100各1枚)</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第3接触時間の前後20秒 (連写)</t>
@@ -539,6 +347,209 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>レンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SequentialA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SequentialB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+/- 2/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2接触時間の30秒前まで (この70秒間でフィルターを外す)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3接触時間の30秒後から(この70秒間でフィルターを付ける)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4接触時間の75分30秒前から30秒ごとに180枚撮像</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1接触時間の14分30秒前から30秒ごとに180枚撮像</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サツゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皆既中の撮影 (1/2000～1/2)</t>
+    <rPh sb="0" eb="2">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/320</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlackSunA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlackSunMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlackSunB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>separate8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地球照 (1/1000～1/1)</t>
+    <rPh sb="0" eb="2">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -583,12 +594,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -614,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,9 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -640,6 +654,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,14 +694,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>734150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38693</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655996</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>217376</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -687,10 +716,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1132114" y="3401786"/>
-          <a:ext cx="9921693" cy="1676993"/>
+          <a:off x="1132114" y="5274129"/>
+          <a:ext cx="18209211" cy="1621633"/>
           <a:chOff x="1354209" y="2973544"/>
-          <a:chExt cx="9921693" cy="1676993"/>
+          <a:chExt cx="9843539" cy="1621633"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1073,7 +1102,23 @@
             <a:p>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>SequentialA1</a:t>
+                <a:t>SequentialA</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+/- 1/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t> </a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
@@ -1187,151 +1232,6 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="39" name="グループ化 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC18CF7-6AB9-59EE-AF9B-6748676C0534}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1432363" y="4129966"/>
-            <a:ext cx="2939997" cy="520571"/>
-            <a:chOff x="1352070" y="4060743"/>
-            <a:chExt cx="2937855" cy="508383"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="68" name="直線コネクタ 67">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42177A6E-41E0-30CB-0E2B-D284EA7A0E25}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1369034" y="4113230"/>
-              <a:ext cx="0" cy="455896"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4B89B3-0E49-3ADA-DDB4-21371678EF5F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1352070" y="4351139"/>
-              <a:ext cx="2937855" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="70" name="テキスト ボックス 69">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D314D2C-4831-94AE-91C6-19FCB17EF6BA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2305537" y="4060743"/>
-              <a:ext cx="993207" cy="263769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>SequentialA2</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
           <xdr:cNvPr id="40" name="グループ化 39">
@@ -1471,151 +1371,6 @@
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
                 <a:t>SequentialB1</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="グループ化 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B775C98A-E8D2-3871-FA11-2C32BC812F75}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7501009" y="4129966"/>
-            <a:ext cx="3774893" cy="520571"/>
-            <a:chOff x="1352070" y="4060743"/>
-            <a:chExt cx="2937855" cy="508383"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="62" name="直線コネクタ 61">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F29B6C-CE65-5FA3-FBAC-D1E988B2BBA2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1369034" y="4113230"/>
-              <a:ext cx="0" cy="455896"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CEFB80-AD7C-F2EC-91F7-0614DFBD1D7C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1352070" y="4351139"/>
-              <a:ext cx="2937855" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="64" name="テキスト ボックス 63">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0FA5B6-50E5-766D-6B6A-206B552334E9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2305537" y="4060743"/>
-              <a:ext cx="993207" cy="263769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>SequentialB2</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
@@ -2354,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -2367,402 +2122,906 @@
     <col min="3" max="4" width="10.640625" customWidth="1"/>
     <col min="5" max="5" width="12.0703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.0703125" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.78515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.2109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="56" customWidth="1"/>
+    <col min="15" max="15" width="13.78515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.4" customHeight="1" thickBot="1">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:18" ht="28.4" customHeight="1" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
+      <c r="P1" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:18">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B2,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="D2" s="5">
-        <v>-810</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="9">
+        <v>-870</v>
+      </c>
+      <c r="E2" s="10">
         <v>30</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="10">
         <v>180</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
+        <f>C2+D2/86400</f>
+        <v>0.71493055555555551</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2+E2*(F2-1)/86400</f>
+        <v>0.77708333333333335</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="4">
         <v>100</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B3,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D3" s="5">
-        <f>D2+15</f>
-        <v>-795</v>
-      </c>
-      <c r="E3" s="4">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4">
-        <v>180</v>
-      </c>
-      <c r="G3" s="4">
+        <v>0.77859953703703699</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-110</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <f>C3+D3/86400</f>
+        <v>0.77732638888888883</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3" si="0">G3+E3*(F3-1)/86400</f>
+        <v>0.77732638888888883</v>
+      </c>
+      <c r="I3" s="11">
+        <f>G3-H2</f>
+        <v>2.4305555555548253E-4</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="4">
         <v>100</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B4,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.77859953703703699</v>
       </c>
-      <c r="D4" s="5">
-        <v>-20</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>40</v>
-      </c>
-      <c r="G4" s="4">
-        <v>200</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="D4" s="9">
+        <v>-100</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <f>C4+D4/86400</f>
+        <v>0.77744212962962955</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H18" si="1">G4+E4*(F4-1)/86400</f>
+        <v>0.77807870370370358</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I18" si="2">G4-H3</f>
+        <v>1.1574074074072183E-4</v>
+      </c>
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:18">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B5,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.77859953703703699</v>
       </c>
-      <c r="D5" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="9">
+        <v>-38</v>
+      </c>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f>C5+D5/86400</f>
+        <v>0.77815972222222218</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77815972222222218</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="2"/>
+        <v>8.1018518518605198E-5</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
+      <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:18">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B6,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-100</v>
-      </c>
-      <c r="E6" s="4">
+        <v>0.77859953703703699</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-30</v>
+      </c>
+      <c r="E6" s="10">
         <v>0.1</v>
       </c>
-      <c r="F6" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="10">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3">
+        <f>C6+D6/86400</f>
+        <v>0.77825231481481472</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77882986111111097</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="2"/>
+        <v>9.2592592592533052E-5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+    <row r="7" spans="1:18">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B7,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78165509259259258</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-20</v>
-      </c>
-      <c r="E7" s="4">
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-109</v>
+      </c>
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G17" si="3">C7+D7/86400</f>
+        <v>0.77886574074074066</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77886574074074066</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>3.5879629629698151E-5</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="4">
         <v>200</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>58</v>
+      <c r="L7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B8,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78165509259259258</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>100</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-105</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>920</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77891203703703704</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77997569444444448</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>4.6296296296377548E-5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="4">
+        <v>200</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
+    <row r="9" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B9,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-4590</v>
-      </c>
-      <c r="E9" s="4">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4">
-        <v>180</v>
-      </c>
-      <c r="G9" s="4">
-        <v>100</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:G10" si="4">C9+D9/86400</f>
+        <v>0.78001157407407407</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78001157407407407</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>3.5879629629587129E-5</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="4">
+        <v>200</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B10,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>120</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.78005787037037033</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78019560185185177</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>4.6296296296266526E-5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="4">
+        <v>800</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B11,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:G12" si="5">C11+D11/86400</f>
+        <v>0.78023148148148147</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78023148148148147</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>3.5879629629698151E-5</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="4">
+        <v>200</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B12,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78012731481481479</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>920</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7802662037037037</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78132986111111113</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="4">
+        <v>200</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B13,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78165509259259258</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-24</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78137731481481476</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78137731481481476</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>4.7453703703626005E-5</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B14,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78165509259259258</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-20</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78142361111111114</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78200115740740739</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="2"/>
+        <v>4.6296296296377548E-5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="4">
+        <v>100</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B15,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78165509259259258</v>
+      </c>
+      <c r="D15" s="9">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.7820717592592592</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7820717592592592</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="2"/>
+        <v>7.0601851851814779E-5</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="5">
+        <v>100</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B16,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.78165509259259258</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78214120370370366</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78277777777777768</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="2"/>
+        <v>6.94444444444553E-5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="5">
+        <v>100</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B17,'Contact time'!$A$3:$A$7,0))</f>
         <v>0.8354166666666667</v>
       </c>
-      <c r="D10" s="5">
-        <f>D9+15</f>
-        <v>-4575</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D17" s="9">
+        <v>-4538</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78289351851851852</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78289351851851852</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1574074074083285E-4</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="4">
+        <v>100</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B18,'Contact time'!$A$3:$A$7,0))</f>
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-4530</v>
+      </c>
+      <c r="E18" s="10">
         <v>30</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F18" s="10">
         <v>180</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G18" s="3">
+        <f>C18+D18/86400</f>
+        <v>0.78298611111111116</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84513888888888888</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>9.2592592592644074E-5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="4">
         <v>100</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
+      <c r="L18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="G19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2772,12 +3031,12 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06D76A65-2E73-4314-87FB-32A84EAF2B19}">
           <x14:formula1>
             <xm:f>'Contact time'!$A$3:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B9:B10 B2:B8</xm:sqref>
+          <xm:sqref>B2:B18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2789,7 +3048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5763B4D-B86C-46D0-A39A-3E2194A11374}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
   <cols>
@@ -2800,32 +3061,32 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.47500000000000003</v>
@@ -2843,7 +3104,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>0.52859953703703699</v>
@@ -2855,12 +3116,12 @@
         <v>0.15359953703703702</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>0.53012731481481479</v>
@@ -2878,7 +3139,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>0.53165509259259258</v>
@@ -2890,12 +3151,12 @@
         <v>0.15665509259259261</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>0.5854166666666667</v>

--- a/usa_eclipse.xlsx
+++ b/usa_eclipse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Python\eclipse_shooter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5319DA-47D6-468A-9881-DB864CAEFCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41363A37-1981-446E-8CB5-D2BA8F37D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{7DF7D7BD-CE0E-4603-9E08-45EEF8AD4A9A}"/>
   </bookViews>
@@ -426,28 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第4接触時間の75分30秒前から30秒ごとに180枚撮像</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>separate1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,37 +447,6 @@
   </si>
   <si>
     <t>separate6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1接触時間の14分30秒前から30秒ごとに180枚撮像</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>プン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サツゾウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -516,10 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/320</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BlackSunA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -550,6 +493,63 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>テル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1接触時間の14分程度前から30秒ごとに180枚撮像</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サツゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4接触時間の73分30秒前から30秒ごとに180枚撮像</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +669,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +720,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1132114" y="5274129"/>
-          <a:ext cx="18209211" cy="1621633"/>
+          <a:ext cx="18192882" cy="1621633"/>
           <a:chOff x="1354209" y="2973544"/>
           <a:chExt cx="9843539" cy="1621633"/>
         </a:xfrm>
@@ -2111,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE1CA7-7147-421C-853D-5A833D14C27C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -2122,6 +2125,7 @@
     <col min="3" max="4" width="10.640625" customWidth="1"/>
     <col min="5" max="5" width="12.0703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.0703125" customWidth="1"/>
+    <col min="9" max="9" width="8.92578125" customWidth="1"/>
     <col min="10" max="10" width="51.2109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="8.140625" customWidth="1"/>
@@ -2189,10 +2193,10 @@
       </c>
       <c r="C2" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B2,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.72499999999999998</v>
+        <v>0.73638888888888887</v>
       </c>
       <c r="D2" s="9">
-        <v>-870</v>
+        <v>-890</v>
       </c>
       <c r="E2" s="10">
         <v>30</v>
@@ -2202,21 +2206,21 @@
       </c>
       <c r="G2" s="3">
         <f>C2+D2/86400</f>
-        <v>0.71493055555555551</v>
+        <v>0.72608796296296296</v>
       </c>
       <c r="H2" s="3">
         <f>G2+E2*(F2-1)/86400</f>
-        <v>0.77708333333333335</v>
+        <v>0.7882407407407408</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K2" s="4">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>37</v>
@@ -2231,14 +2235,14 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B3,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.77859953703703699</v>
+        <v>0.78968749999999999</v>
       </c>
       <c r="D3" s="9">
         <v>-110</v>
@@ -2251,19 +2255,19 @@
       </c>
       <c r="G3" s="3">
         <f>C3+D3/86400</f>
-        <v>0.77732638888888883</v>
+        <v>0.78841435185185182</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3" si="0">G3+E3*(F3-1)/86400</f>
-        <v>0.77732638888888883</v>
+        <v>0.78841435185185182</v>
       </c>
       <c r="I3" s="11">
         <f>G3-H2</f>
-        <v>2.4305555555548253E-4</v>
+        <v>1.7361111111102723E-4</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="4">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>22</v>
@@ -2288,7 +2292,7 @@
       </c>
       <c r="C4" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B4,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.77859953703703699</v>
+        <v>0.78968749999999999</v>
       </c>
       <c r="D4" s="9">
         <v>-100</v>
@@ -2301,11 +2305,11 @@
       </c>
       <c r="G4" s="3">
         <f>C4+D4/86400</f>
-        <v>0.77744212962962955</v>
+        <v>0.78853009259259255</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H18" si="1">G4+E4*(F4-1)/86400</f>
-        <v>0.77807870370370358</v>
+        <v>0.78916666666666657</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" ref="I4:I18" si="2">G4-H3</f>
@@ -2315,7 +2319,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="4">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>22</v>
@@ -2332,14 +2336,14 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B5,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.77859953703703699</v>
+        <v>0.78968749999999999</v>
       </c>
       <c r="D5" s="9">
         <v>-38</v>
@@ -2352,11 +2356,11 @@
       </c>
       <c r="G5" s="3">
         <f>C5+D5/86400</f>
-        <v>0.77815972222222218</v>
+        <v>0.78924768518518518</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.77815972222222218</v>
+        <v>0.78924768518518518</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="2"/>
@@ -2389,7 +2393,7 @@
       </c>
       <c r="C6" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B6,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.77859953703703699</v>
+        <v>0.78968749999999999</v>
       </c>
       <c r="D6" s="9">
         <v>-30</v>
@@ -2398,15 +2402,15 @@
         <v>0.1</v>
       </c>
       <c r="F6" s="10">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G6" s="3">
         <f>C6+D6/86400</f>
-        <v>0.77825231481481472</v>
+        <v>0.78934027777777771</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>0.77882986111111097</v>
+        <v>0.78980208333333324</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="2"/>
@@ -2433,17 +2437,17 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B7,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
+        <v>0.79104166666666664</v>
       </c>
       <c r="D7" s="9">
-        <v>-109</v>
+        <v>-104</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2453,11 +2457,11 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ref="G7:G17" si="3">C7+D7/86400</f>
-        <v>0.77886574074074066</v>
+        <v>0.78983796296296294</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0.77886574074074066</v>
+        <v>0.78983796296296294</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="2"/>
@@ -2479,38 +2483,38 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B8,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
+        <v>0.79104166666666664</v>
       </c>
       <c r="D8" s="9">
-        <v>-105</v>
+        <v>-100</v>
       </c>
       <c r="E8" s="10">
         <v>0.1</v>
       </c>
       <c r="F8" s="10">
-        <v>920</v>
+        <v>850</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>0.77891203703703704</v>
+        <v>0.7898842592592592</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.77997569444444448</v>
+        <v>0.79086689814814815</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="2"/>
-        <v>4.6296296296377548E-5</v>
+        <v>4.6296296296266526E-5</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" s="4">
         <v>200</v>
@@ -2530,14 +2534,14 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B9,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
+        <v>0.79104166666666664</v>
       </c>
       <c r="D9" s="9">
         <v>-10</v>
@@ -2550,15 +2554,15 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9:G10" si="4">C9+D9/86400</f>
-        <v>0.78001157407407407</v>
+        <v>0.79092592592592592</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>0.78001157407407407</v>
+        <v>0.79092592592592592</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>3.5879629629587129E-5</v>
+        <v>5.9027777777775903E-5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="4">
@@ -2576,14 +2580,14 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B10,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
+        <v>0.79104166666666664</v>
       </c>
       <c r="D10" s="9">
         <v>-6</v>
@@ -2596,24 +2600,24 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="4"/>
-        <v>0.78005787037037033</v>
+        <v>0.79097222222222219</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>0.78019560185185177</v>
+        <v>0.79110995370370363</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="2"/>
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K10" s="4">
         <v>800</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>32</v>
@@ -2627,14 +2631,14 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B11,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
+        <v>0.79104166666666664</v>
       </c>
       <c r="D11" s="9">
         <v>9</v>
@@ -2647,11 +2651,11 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ref="G11:G12" si="5">C11+D11/86400</f>
-        <v>0.78023148148148147</v>
+        <v>0.79114583333333333</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>0.78023148148148147</v>
+        <v>0.79114583333333333</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="2"/>
@@ -2673,14 +2677,14 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B12,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78012731481481479</v>
+        <v>0.79104166666666664</v>
       </c>
       <c r="D12" s="9">
         <v>12</v>
@@ -2689,22 +2693,22 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="10">
-        <v>920</v>
+        <v>850</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="5"/>
-        <v>0.7802662037037037</v>
+        <v>0.79118055555555555</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>0.78132986111111113</v>
+        <v>0.7921631944444445</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="2"/>
         <v>3.472222222222765E-5</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K12" s="4">
         <v>200</v>
@@ -2724,17 +2728,17 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B13,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78165509259259258</v>
+        <v>0.79238425925925926</v>
       </c>
       <c r="D13" s="9">
-        <v>-24</v>
+        <v>-14</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -2744,15 +2748,15 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>0.78137731481481476</v>
+        <v>0.79222222222222227</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>0.78137731481481476</v>
+        <v>0.79222222222222227</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="2"/>
-        <v>4.7453703703626005E-5</v>
+        <v>5.9027777777775903E-5</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="4">
@@ -2777,28 +2781,28 @@
       </c>
       <c r="C14" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B14,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78165509259259258</v>
+        <v>0.79238425925925926</v>
       </c>
       <c r="D14" s="9">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="E14" s="10">
         <v>0.1</v>
       </c>
       <c r="F14" s="10">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>0.78142361111111114</v>
+        <v>0.79226851851851854</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>0.78200115740740739</v>
+        <v>0.79273032407407407</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="2"/>
-        <v>4.6296296296377548E-5</v>
+        <v>4.6296296296266526E-5</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
@@ -2821,14 +2825,14 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B15,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78165509259259258</v>
+        <v>0.79238425925925926</v>
       </c>
       <c r="D15" s="9">
         <v>36</v>
@@ -2841,11 +2845,11 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>0.7820717592592592</v>
+        <v>0.79280092592592588</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>0.7820717592592592</v>
+        <v>0.79280092592592588</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="2"/>
@@ -2853,7 +2857,7 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="5">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>22</v>
@@ -2874,7 +2878,7 @@
       </c>
       <c r="C16" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B16,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.78165509259259258</v>
+        <v>0.79238425925925926</v>
       </c>
       <c r="D16" s="9">
         <v>42</v>
@@ -2887,11 +2891,11 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>0.78214120370370366</v>
+        <v>0.79287037037037034</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>0.78277777777777768</v>
+        <v>0.79350694444444436</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="2"/>
@@ -2901,7 +2905,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="5">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>22</v>
@@ -2918,17 +2922,17 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B17,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.8354166666666667</v>
+        <v>0.84479166666666672</v>
       </c>
       <c r="D17" s="9">
-        <v>-4538</v>
+        <v>-4418</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -2938,22 +2942,22 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>0.78289351851851852</v>
+        <v>0.79365740740740742</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>0.78289351851851852</v>
+        <v>0.79365740740740742</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
-        <v>1.1574074074083285E-4</v>
+        <v>1.504629629630605E-4</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="4">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>49</v>
@@ -2971,10 +2975,10 @@
       </c>
       <c r="C18" s="3">
         <f>INDEX('Contact time'!$E$3:$E$7,MATCH(B18,'Contact time'!$A$3:$A$7,0))</f>
-        <v>0.8354166666666667</v>
+        <v>0.84479166666666672</v>
       </c>
       <c r="D18" s="9">
-        <v>-4530</v>
+        <v>-4410</v>
       </c>
       <c r="E18" s="10">
         <v>30</v>
@@ -2984,24 +2988,24 @@
       </c>
       <c r="G18" s="3">
         <f>C18+D18/86400</f>
-        <v>0.78298611111111116</v>
+        <v>0.79375000000000007</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>0.84513888888888888</v>
+        <v>0.8559027777777779</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="2"/>
         <v>9.2592592592644074E-5</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="K18" s="4">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>37</v>
@@ -3046,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5763B4D-B86C-46D0-A39A-3E2194A11374}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -3057,9 +3061,10 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.2109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3084,94 +3089,145 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.47500000000000003</v>
+        <v>0.5280555555555555</v>
       </c>
       <c r="E3" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="G3" s="3">
-        <v>9.9999999999999992E-2</v>
+        <v>0.73638888888888887</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.11138888888888888</v>
       </c>
       <c r="J3" s="3">
         <f>E4-E3</f>
-        <v>5.3599537037037015E-2</v>
+        <v>5.3298611111111116E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f>E3-C3</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="N3" s="3">
+        <f>E3-G3</f>
+        <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.52859953703703699</v>
+        <v>0.58135416666666662</v>
       </c>
       <c r="E4" s="3">
-        <v>0.77859953703703699</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.15359953703703702</v>
+        <v>0.78968749999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.16468749999999999</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
       </c>
+      <c r="M4" s="3">
+        <f>E4-C4</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N7" si="0">E4-G4</f>
+        <v>0.625</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>0.53012731481481479</v>
+        <v>0.58270833333333338</v>
       </c>
       <c r="E5" s="3">
-        <v>0.78012731481481479</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.15512731481481482</v>
+        <v>0.79104166666666664</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.16604166666666667</v>
       </c>
       <c r="J5" s="3">
-        <f>G6-G4</f>
-        <v>3.0555555555555891E-3</v>
+        <f>E6-E4</f>
+        <v>2.6967592592592737E-3</v>
+      </c>
+      <c r="M5" s="3">
+        <f>E5-C5</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>0.53165509259259258</v>
+        <v>0.58405092592592589</v>
       </c>
       <c r="E6" s="3">
-        <v>0.78165509259259258</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.15665509259259261</v>
+        <v>0.79238425925925926</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.16738425925925926</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
       </c>
+      <c r="M6" s="3">
+        <f>E6-C6</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>0.5854166666666667</v>
+        <v>0.63645833333333335</v>
       </c>
       <c r="E7" s="3">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.21041666666666667</v>
+        <v>0.84479166666666672</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.21979166666666666</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f>E7-E6</f>
-        <v>5.3761574074074114E-2</v>
-      </c>
+        <v>5.2407407407407458E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <f>E7-C7</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
